--- a/data/xiaojinshu.Top.xlsx
+++ b/data/xiaojinshu.Top.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>code</t>
   </si>
@@ -48,6 +48,18 @@
   </si>
   <si>
     <t>rateofreturn</t>
+  </si>
+  <si>
+    <t>赣锋锂业</t>
+  </si>
+  <si>
+    <t>小金属</t>
+  </si>
+  <si>
+    <t>天齐锂业</t>
+  </si>
+  <si>
+    <t>华友钴业</t>
   </si>
 </sst>
 </file>
@@ -396,7 +408,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:L1"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,6 +451,120 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="n">
+        <v>2760</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2460</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14.54</v>
+      </c>
+      <c r="F2" t="n">
+        <v>33.54</v>
+      </c>
+      <c r="G2" t="n">
+        <v>32.9179</v>
+      </c>
+      <c r="H2" t="n">
+        <v>33.08</v>
+      </c>
+      <c r="I2" t="n">
+        <v>37.589</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.001627340614162082</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.2089</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2466</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="F3" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="G3" t="n">
+        <v>52.4156</v>
+      </c>
+      <c r="H3" t="n">
+        <v>22.58</v>
+      </c>
+      <c r="I3" t="n">
+        <v>69.7676</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.001060109260927849</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.8631</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.1516</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="n">
+        <v>1097</v>
+      </c>
+      <c r="B4" t="n">
+        <v>603799</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="F4" t="n">
+        <v>37.84</v>
+      </c>
+      <c r="G4" t="n">
+        <v>117.5545</v>
+      </c>
+      <c r="H4" t="n">
+        <v>20.76</v>
+      </c>
+      <c r="I4" t="n">
+        <v>33.2469</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0007979265795630939</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.8759</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.0886</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/xiaojinshu.Top.xlsx
+++ b/data/xiaojinshu.Top.xlsx
@@ -2,7 +2,6 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
@@ -26,7 +25,7 @@
     <t>industry</t>
   </si>
   <si>
-    <t>pb</t>
+    <t>roe_pb</t>
   </si>
   <si>
     <t>pe</t>
@@ -35,9 +34,6 @@
     <t>nav</t>
   </si>
   <si>
-    <t>roe</t>
-  </si>
-  <si>
     <t>gross_profit_rate</t>
   </si>
   <si>
@@ -50,16 +46,19 @@
     <t>rateofreturn</t>
   </si>
   <si>
+    <t>华友钴业</t>
+  </si>
+  <si>
+    <t>小金属</t>
+  </si>
+  <si>
     <t>赣锋锂业</t>
   </si>
   <si>
-    <t>小金属</t>
+    <t>鄂尔多斯</t>
   </si>
   <si>
     <t>天齐锂业</t>
-  </si>
-  <si>
-    <t>华友钴业</t>
   </si>
 </sst>
 </file>
@@ -408,7 +407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -416,7 +415,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,122 +446,145 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="n">
+        <v>1097</v>
+      </c>
+      <c r="B2" t="n">
+        <v>603799</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.980916030534351</v>
+      </c>
+      <c r="F2" t="n">
+        <v>37.84</v>
+      </c>
+      <c r="G2" t="n">
+        <v>117.5545</v>
+      </c>
+      <c r="H2" t="n">
+        <v>33.2469</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0007979265795630939</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.8759</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.0886</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1" t="n">
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="n">
         <v>2760</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B3" t="n">
         <v>2460</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="n">
-        <v>14.54</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E3" t="n">
+        <v>2.275103163686382</v>
+      </c>
+      <c r="F3" t="n">
         <v>33.54</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G3" t="n">
         <v>32.9179</v>
       </c>
-      <c r="H2" t="n">
-        <v>33.08</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="H3" t="n">
         <v>37.589</v>
       </c>
-      <c r="J2" t="n">
+      <c r="I3" t="n">
         <v>0.001627340614162082</v>
       </c>
-      <c r="K2" t="n">
+      <c r="J3" t="n">
         <v>1.2089</v>
       </c>
-      <c r="L2" t="n">
+      <c r="K3" t="n">
         <v>0.0226</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="n">
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="n">
+        <v>3115</v>
+      </c>
+      <c r="B4" t="n">
+        <v>600295</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.484375</v>
+      </c>
+      <c r="F4" t="n">
+        <v>30.07</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7.0994</v>
+      </c>
+      <c r="H4" t="n">
+        <v>26.9044</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7.380582491452905e-05</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.9636</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B5" t="n">
         <v>2466</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.951633986928104</v>
+      </c>
+      <c r="F5" t="n">
         <v>29.19</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G5" t="n">
         <v>52.4156</v>
       </c>
-      <c r="H3" t="n">
-        <v>22.58</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="H5" t="n">
         <v>69.7676</v>
       </c>
-      <c r="J3" t="n">
+      <c r="I5" t="n">
         <v>0.001060109260927849</v>
       </c>
-      <c r="K3" t="n">
+      <c r="J5" t="n">
         <v>0.8631</v>
       </c>
-      <c r="L3" t="n">
+      <c r="K5" t="n">
         <v>0.1516</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="n">
-        <v>1097</v>
-      </c>
-      <c r="B4" t="n">
-        <v>603799</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="F4" t="n">
-        <v>37.84</v>
-      </c>
-      <c r="G4" t="n">
-        <v>117.5545</v>
-      </c>
-      <c r="H4" t="n">
-        <v>20.76</v>
-      </c>
-      <c r="I4" t="n">
-        <v>33.2469</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.0007979265795630939</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.8759</v>
-      </c>
-      <c r="L4" t="n">
-        <v>-0.0886</v>
       </c>
     </row>
   </sheetData>
